--- a/outputs-GTDB-r202/g__UBA4334.xlsx
+++ b/outputs-GTDB-r202/g__UBA4334.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp002393555</t>
+          <t>s__UBA4334 sp002393555(reject)</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>s__UBA4334 sp900318775</t>
+          <t>s__UBA4334 sp900318775(reject)</t>
         </is>
       </c>
     </row>
